--- a/lich_nghi_tua.xlsx
+++ b/lich_nghi_tua.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL XPS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL XPS\Downloads\LỊCH LÀM VIỆC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2BA9BC-8D27-47EF-90FE-294198C6E3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038404D4-1766-462D-882D-2DD4C4583376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{94D5FB02-FFF2-4890-84B7-36798F02E74D}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="35">
   <si>
     <t>STT</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>Số ngày NT còn lại</t>
-  </si>
-  <si>
-    <t>22/07/2025</t>
   </si>
   <si>
     <t>PHAM TRAN THANH THIEN</t>
@@ -686,7 +683,7 @@
   <dimension ref="A1:AI21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -711,8 +708,8 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
+      <c r="E1" s="3">
+        <v>45860</v>
       </c>
       <c r="F1" s="3">
         <f>E1+1</f>
@@ -840,10 +837,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>6</v>
       </c>
       <c r="D2" s="6">
         <v>6</v>
@@ -885,23 +882,23 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
@@ -909,10 +906,10 @@
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
       <c r="P3" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
@@ -921,7 +918,7 @@
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
       <c r="X3" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
@@ -930,7 +927,7 @@
       <c r="AC3" s="7"/>
       <c r="AD3" s="7"/>
       <c r="AE3" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF3" s="7"/>
       <c r="AG3" s="7"/>
@@ -942,10 +939,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>11</v>
       </c>
       <c r="D4" s="6">
         <v>0</v>
@@ -963,20 +960,20 @@
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
       <c r="W4" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
@@ -988,10 +985,10 @@
       <c r="AF4" s="7"/>
       <c r="AG4" s="7"/>
       <c r="AH4" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI4" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -999,19 +996,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="6">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -1020,10 +1017,10 @@
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
@@ -1041,10 +1038,10 @@
       <c r="AB5" s="7"/>
       <c r="AC5" s="7"/>
       <c r="AD5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF5" s="7"/>
       <c r="AG5" s="7"/>
@@ -1056,10 +1053,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="6">
         <v>0</v>
@@ -1067,14 +1064,14 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
@@ -1082,7 +1079,7 @@
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
       <c r="P6" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
@@ -1090,7 +1087,7 @@
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
@@ -1101,7 +1098,7 @@
       <c r="AC6" s="7"/>
       <c r="AD6" s="7"/>
       <c r="AE6" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF6" s="7"/>
       <c r="AG6" s="7"/>
@@ -1113,19 +1110,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="6">
         <v>0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -1136,10 +1133,10 @@
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
       <c r="O7" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
@@ -1147,7 +1144,7 @@
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W7" s="7"/>
       <c r="X7" s="7"/>
@@ -1157,7 +1154,7 @@
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE7" s="7"/>
       <c r="AF7" s="7"/>
@@ -1170,10 +1167,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="6">
         <v>0</v>
@@ -1181,13 +1178,13 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
@@ -1196,7 +1193,7 @@
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
@@ -1204,10 +1201,10 @@
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
       <c r="X8" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z8" s="7"/>
       <c r="AA8" s="7"/>
@@ -1215,7 +1212,7 @@
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
       <c r="AE8" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF8" s="7"/>
       <c r="AG8" s="7"/>
@@ -1227,10 +1224,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="D9" s="6">
         <v>0</v>
@@ -1239,7 +1236,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
@@ -1249,13 +1246,13 @@
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
       <c r="P9" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
@@ -1280,10 +1277,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="6">
         <v>0</v>
@@ -1293,20 +1290,20 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
@@ -1333,10 +1330,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" s="6">
         <v>0</v>
@@ -1349,10 +1346,10 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1368,10 +1365,10 @@
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
       <c r="AA11" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB11" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AC11" s="7"/>
       <c r="AD11" s="7"/>
@@ -1386,10 +1383,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" s="6">
         <v>-5</v>
@@ -1414,31 +1411,31 @@
       <c r="V12" s="7"/>
       <c r="W12" s="7"/>
       <c r="X12" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y12" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z12" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA12" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB12" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AC12" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD12" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE12" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF12" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG12" s="7"/>
       <c r="AH12" s="7"/>
@@ -1449,10 +1446,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" s="6">
         <v>0</v>
@@ -1475,19 +1472,19 @@
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
       <c r="V13" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
       <c r="Z13" s="7"/>
       <c r="AA13" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB13" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AC13" s="7"/>
       <c r="AD13" s="7"/>
@@ -1502,10 +1499,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" s="6">
         <v>0</v>
@@ -1514,10 +1511,10 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
@@ -1539,10 +1536,10 @@
       <c r="AA14" s="7"/>
       <c r="AB14" s="7"/>
       <c r="AC14" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD14" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE14" s="7"/>
       <c r="AF14" s="7"/>
@@ -1555,10 +1552,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15" s="6">
         <v>0</v>
@@ -1570,13 +1567,13 @@
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
       <c r="O15" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
@@ -1587,7 +1584,7 @@
       <c r="V15" s="7"/>
       <c r="W15" s="7"/>
       <c r="X15" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y15" s="7"/>
       <c r="Z15" s="7"/>
@@ -1596,7 +1593,7 @@
       <c r="AC15" s="7"/>
       <c r="AD15" s="7"/>
       <c r="AE15" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF15" s="7"/>
       <c r="AG15" s="7"/>
@@ -1608,10 +1605,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="D16" s="6">
         <v>4</v>
@@ -1653,17 +1650,17 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" s="6">
         <v>0</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -1672,10 +1669,10 @@
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
@@ -1695,7 +1692,7 @@
       <c r="AD17" s="7"/>
       <c r="AE17" s="7"/>
       <c r="AF17" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG17" s="7"/>
       <c r="AH17" s="7"/>
@@ -1706,10 +1703,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="6">
         <v>0</v>
@@ -1720,13 +1717,13 @@
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
@@ -1742,7 +1739,7 @@
       <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
       <c r="Z18" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA18" s="7"/>
       <c r="AB18" s="7"/>
@@ -1759,10 +1756,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="D19" s="6">
         <v>4</v>
@@ -1804,10 +1801,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="D20" s="6">
         <v>6</v>
@@ -1849,10 +1846,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D21" s="6">
         <v>6</v>
@@ -1900,7 +1897,7 @@
   <dimension ref="D3:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1911,10 +1908,10 @@
   <sheetData>
     <row r="3" spans="4:5" ht="18.5" x14ac:dyDescent="0.35">
       <c r="D3" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="4:5" ht="16" x14ac:dyDescent="0.35">
@@ -1953,10 +1950,10 @@
     </row>
     <row r="8" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D8" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="11">
-        <v>45862</v>
+        <v>45860</v>
       </c>
     </row>
     <row r="9" spans="4:5" ht="16" x14ac:dyDescent="0.35">
@@ -1976,7 +1973,7 @@
       </c>
       <c r="E10" s="12" t="str" cm="1">
         <f t="array" ref="E10">IFERROR(_xlfn.TEXTJOIN(", ", TRUE, _xlfn._xlws.FILTER(DL!B2:B8, INDEX(DL!E2:AI8,, MATCH(E8, DL!E1:AI1, 0)) = "NT")), "")</f>
-        <v>NGUYEN TRONG NGHIA, PINANG ANH</v>
+        <v>DANG NANG TUY, KATOR HOANG</v>
       </c>
     </row>
     <row r="11" spans="4:5" ht="16" x14ac:dyDescent="0.35">
